--- a/private/ART/中国传统颜色.xlsx
+++ b/private/ART/中国传统颜色.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22305" windowHeight="10440"/>
+    <workbookView windowWidth="13230" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="402">
   <si>
     <t>颜色</t>
   </si>
@@ -49,10 +49,19 @@
     <t>K</t>
   </si>
   <si>
+    <t>相关诗词</t>
+  </si>
+  <si>
     <t>来源</t>
   </si>
   <si>
-    <t>相关诗词</t>
+    <t>简名</t>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>red</t>
   </si>
   <si>
     <t>海天霞</t>
@@ -1220,8 +1229,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1240,14 +1249,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1255,7 +1264,67 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1285,39 +1354,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1325,43 +1364,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1382,8 +1384,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1392,55 +1401,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,7 +1431,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,13 +1497,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,55 +1569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,31 +1587,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,6 +1604,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1601,30 +1646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1636,15 +1657,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1666,15 +1678,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1683,6 +1686,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1691,10 +1712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1703,141 +1724,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2162,52 +2192,57 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N213"/>
+  <dimension ref="A1:O213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="E183" sqref="E183"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="5" width="9" style="2"/>
+    <col min="6" max="8" width="9" style="3"/>
+    <col min="9" max="12" width="9" style="4"/>
+    <col min="13" max="14" width="9" style="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -2216,1618 +2251,1638 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3">
+        <v>255</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" ht="13.5" spans="1:2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" ht="13.5" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" ht="13.5" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" ht="13.5" spans="1:2">
-      <c r="A36" s="2" t="s">
+      <c r="B34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="2" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" ht="13.5" spans="1:2">
-      <c r="A37" s="2" t="s">
+      <c r="B35" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="2" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" ht="13.5" spans="1:2">
-      <c r="A38" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="2" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" ht="13.5" spans="1:2">
-      <c r="A39" s="2" t="s">
+      <c r="B37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="2" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" ht="13.5" spans="1:2">
-      <c r="A40" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="2" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" ht="13.5" spans="1:2">
-      <c r="A41" s="2" t="s">
+      <c r="B39" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="2" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" ht="13.5" spans="1:2">
-      <c r="A42" s="2" t="s">
+      <c r="B40" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="2" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" ht="13.5" spans="1:2">
-      <c r="A43" s="2" t="s">
+      <c r="B41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="2" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" ht="13.5" spans="1:2">
-      <c r="A44" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="2" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" ht="13.5" spans="1:2">
-      <c r="A45" s="2" t="s">
+      <c r="B43" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" ht="13.5" spans="1:2">
-      <c r="A46" s="2" t="s">
+      <c r="B44" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" ht="13.5" spans="1:2">
-      <c r="A47" s="2" t="s">
+      <c r="B45" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="2" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" ht="13.5" spans="1:2">
-      <c r="A48" s="2" t="s">
+      <c r="B46" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="2" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" ht="13.5" spans="1:2">
-      <c r="A49" s="2" t="s">
+      <c r="B47" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="2" t="s">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" ht="13.5" spans="1:2">
-      <c r="A50" s="2" t="s">
+      <c r="B48" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="2" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="51" ht="13.5" spans="1:2">
-      <c r="A51" s="2" t="s">
+      <c r="B49" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="2" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="52" ht="13.5" spans="1:2">
-      <c r="A52" s="2" t="s">
+      <c r="B50" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="2" t="s">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" ht="13.5" spans="1:2">
-      <c r="A53" s="2" t="s">
+      <c r="B51" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="2" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" ht="13.5" spans="1:2">
-      <c r="A54" s="2" t="s">
+      <c r="B52" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="2" t="s">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="55" ht="13.5" spans="1:2">
-      <c r="A55" s="2" t="s">
+      <c r="B53" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="2" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="56" ht="13.5" spans="1:2">
-      <c r="A56" s="2" t="s">
+      <c r="B54" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="2" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="57" ht="13.5" spans="1:2">
-      <c r="A57" s="2" t="s">
+      <c r="B55" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="2" t="s">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="58" ht="13.5" spans="1:2">
-      <c r="A58" s="2" t="s">
+      <c r="B56" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="2" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="59" ht="13.5" spans="1:2">
-      <c r="A59" s="2" t="s">
+      <c r="B57" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="2" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="60" ht="13.5" spans="1:2">
-      <c r="A60" s="2" t="s">
+      <c r="B58" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="2" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="61" ht="13.5" spans="1:2">
-      <c r="A61" s="2" t="s">
+      <c r="B59" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="2" t="s">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="62" ht="13.5" spans="1:2">
-      <c r="A62" s="2" t="s">
+      <c r="B60" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="2" t="s">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="63" ht="13.5" spans="1:2">
-      <c r="A63" s="2" t="s">
+      <c r="B61" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="2" t="s">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="64" ht="13.5" spans="1:2">
-      <c r="A64" s="2" t="s">
+      <c r="B62" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="2" t="s">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="65" ht="13.5" spans="1:2">
-      <c r="A65" s="2" t="s">
+      <c r="B63" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="2" t="s">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="66" ht="13.5" spans="1:2">
-      <c r="A66" s="2" t="s">
+      <c r="B64" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="2" t="s">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="67" ht="13.5" spans="1:2">
-      <c r="A67" s="2" t="s">
+      <c r="B65" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="2" t="s">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="68" ht="13.5" spans="1:2">
-      <c r="A68" s="2" t="s">
+      <c r="B66" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="2" t="s">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="69" ht="13.5" spans="1:2">
-      <c r="A69" s="2" t="s">
+      <c r="B67" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="2" t="s">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="70" ht="13.5" spans="1:2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="B68" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" ht="13.5" spans="1:2">
-      <c r="A72" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" ht="13.5" spans="1:2">
-      <c r="A73" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="74" ht="13.5" spans="1:2">
-      <c r="A74" s="2" t="s">
+      <c r="B72" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="2" t="s">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="75" ht="13.5" spans="1:2">
-      <c r="A75" s="2" t="s">
+      <c r="B73" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="2" t="s">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" ht="13.5" spans="1:2">
-      <c r="A76" s="2" t="s">
+      <c r="B74" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B76" s="2" t="s">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="77" ht="13.5" spans="1:2">
-      <c r="A77" s="2" t="s">
+      <c r="B75" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B77" s="2" t="s">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="78" ht="13.5" spans="1:2">
-      <c r="A78" s="2" t="s">
+      <c r="B76" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="2" t="s">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="79" ht="13.5" spans="1:2">
-      <c r="A79" s="2" t="s">
+      <c r="B77" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B79" s="2" t="s">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="5" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="80" ht="13.5" spans="1:2">
-      <c r="A80" s="2" t="s">
+      <c r="B78" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="2" t="s">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="81" ht="13.5" spans="1:2">
-      <c r="A81" s="2" t="s">
+      <c r="B79" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="2" t="s">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="82" ht="13.5" spans="1:2">
-      <c r="A82" s="2" t="s">
+      <c r="B80" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B82" s="2" t="s">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="83" ht="13.5" spans="1:2">
-      <c r="A83" s="2" t="s">
+      <c r="B81" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="2" t="s">
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="84" ht="13.5" spans="1:2">
-      <c r="A84" s="2" t="s">
+      <c r="B82" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B84" s="2" t="s">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="85" ht="13.5" spans="1:2">
-      <c r="A85" s="2" t="s">
+      <c r="B83" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="2" t="s">
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="86" ht="13.5" spans="1:2">
-      <c r="A86" s="2" t="s">
+      <c r="B84" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B86" s="2" t="s">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="87" ht="13.5" spans="1:2">
-      <c r="A87" s="2" t="s">
+      <c r="B85" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B87" s="2" t="s">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="88" ht="13.5" spans="1:2">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
+      <c r="B86" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" ht="13.5" spans="1:2">
-      <c r="A90" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" ht="13.5" spans="1:2">
-      <c r="A91" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B91" s="2" t="s">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="92" ht="13.5" spans="1:2">
-      <c r="A92" s="2" t="s">
+      <c r="B90" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B92" s="2" t="s">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="93" ht="13.5" spans="1:2">
-      <c r="A93" s="2" t="s">
+      <c r="B91" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B93" s="2" t="s">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="94" ht="13.5" spans="1:2">
-      <c r="A94" s="2" t="s">
+      <c r="B92" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B94" s="2" t="s">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="95" ht="13.5" spans="1:2">
-      <c r="A95" s="2" t="s">
+      <c r="B93" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B95" s="2" t="s">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="96" ht="13.5" spans="1:2">
-      <c r="A96" s="2" t="s">
+      <c r="B94" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B96" s="2" t="s">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="97" ht="13.5" spans="1:2">
-      <c r="A97" s="2" t="s">
+      <c r="B95" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="2" t="s">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="98" ht="13.5" spans="1:2">
-      <c r="A98" s="2" t="s">
+      <c r="B96" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B98" s="2" t="s">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="99" ht="13.5" spans="1:2">
-      <c r="A99" s="2" t="s">
+      <c r="B97" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B99" s="2" t="s">
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="5" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="100" ht="13.5" spans="1:2">
-      <c r="A100" s="2" t="s">
+      <c r="B98" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B100" s="2" t="s">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="101" ht="13.5" spans="1:2">
-      <c r="A101" s="2" t="s">
+      <c r="B99" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B101" s="2" t="s">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="102" ht="13.5" spans="1:2">
-      <c r="A102" s="2" t="s">
+      <c r="B100" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B102" s="2" t="s">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="103" ht="13.5" spans="1:2">
-      <c r="A103" s="2" t="s">
+      <c r="B101" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B103" s="2" t="s">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="5" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="104" ht="13.5" spans="1:2">
-      <c r="A104" s="2" t="s">
+      <c r="B102" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B104" s="2" t="s">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="5" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="105" ht="13.5" spans="1:2">
-      <c r="A105" s="2" t="s">
+      <c r="B103" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B105" s="2" t="s">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="106" ht="13.5" spans="1:2">
-      <c r="A106" s="2" t="s">
+      <c r="B104" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B106" s="2" t="s">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="107" ht="13.5" spans="1:2">
-      <c r="A107" s="2" t="s">
+      <c r="B105" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B107" s="2" t="s">
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="5" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="108" ht="13.5" spans="1:2">
-      <c r="A108" s="2" t="s">
+      <c r="B106" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B108" s="2" t="s">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="5" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="109" ht="13.5" spans="1:2">
-      <c r="A109" s="2" t="s">
+      <c r="B107" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B109" s="2" t="s">
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="110" ht="13.5" spans="1:2">
-      <c r="A110" s="2" t="s">
+      <c r="B108" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B110" s="2" t="s">
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="5" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="111" ht="13.5" spans="1:2">
-      <c r="A111" s="2" t="s">
+      <c r="B109" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B111" s="2" t="s">
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="112" ht="13.5" spans="1:2">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
+      <c r="B110" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-    </row>
-    <row r="114" ht="13.5" spans="1:2">
-      <c r="A114" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="115" ht="13.5" spans="1:2">
-      <c r="A115" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B115" s="2" t="s">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="5" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="116" ht="13.5" spans="1:2">
-      <c r="A116" s="2" t="s">
+      <c r="B114" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B116" s="2" t="s">
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="117" ht="13.5" spans="1:2">
-      <c r="A117" s="2" t="s">
+      <c r="B115" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B117" s="2" t="s">
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="5" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="118" ht="13.5" spans="1:2">
-      <c r="A118" s="2" t="s">
+      <c r="B116" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B118" s="2" t="s">
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="5" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="119" ht="13.5" spans="1:2">
-      <c r="A119" s="2" t="s">
+      <c r="B117" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B119" s="2" t="s">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="5" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="120" ht="13.5" spans="1:2">
-      <c r="A120" s="2" t="s">
+      <c r="B118" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B120" s="2" t="s">
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="5" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="121" ht="13.5" spans="1:2">
-      <c r="A121" s="2" t="s">
+      <c r="B119" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B121" s="2" t="s">
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="5" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="122" ht="13.5" spans="1:2">
-      <c r="A122" s="2" t="s">
+      <c r="B120" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B122" s="2" t="s">
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="5" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="123" ht="13.5" spans="1:2">
-      <c r="A123" s="2" t="s">
+      <c r="B121" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B123" s="2" t="s">
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="124" ht="13.5" spans="1:2">
-      <c r="A124" s="2" t="s">
+      <c r="B122" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B124" s="2" t="s">
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="125" ht="13.5" spans="1:2">
-      <c r="A125" s="2" t="s">
+      <c r="B123" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B125" s="2" t="s">
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="5" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="126" ht="13.5" spans="1:2">
-      <c r="A126" s="2" t="s">
+      <c r="B124" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B126" s="2" t="s">
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="5" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="127" ht="13.5" spans="1:2">
-      <c r="A127" s="2" t="s">
+      <c r="B125" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B127" s="2" t="s">
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="5" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="128" ht="13.5" spans="1:2">
-      <c r="A128" s="2" t="s">
+      <c r="B126" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B128" s="2" t="s">
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="5" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="129" ht="13.5" spans="1:2">
-      <c r="A129" s="2" t="s">
+      <c r="B127" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B129" s="2" t="s">
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="5" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="130" ht="13.5" spans="1:2">
-      <c r="A130" s="2" t="s">
+      <c r="B128" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B130" s="2" t="s">
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="131" ht="13.5" spans="1:2">
-      <c r="A131" s="2" t="s">
+      <c r="B129" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B131" s="2" t="s">
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="132" ht="13.5" spans="1:2">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
+      <c r="B130" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-    </row>
-    <row r="134" ht="13.5" spans="1:2">
-      <c r="A134" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="135" ht="13.5" spans="1:2">
-      <c r="A135" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B135" s="2" t="s">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="5" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="136" ht="13.5" spans="1:2">
-      <c r="A136" s="2" t="s">
+      <c r="B134" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B136" s="2" t="s">
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="5" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="137" ht="13.5" spans="1:2">
-      <c r="A137" s="2" t="s">
+      <c r="B135" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B137" s="2" t="s">
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="5" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="138" ht="13.5" spans="1:2">
-      <c r="A138" s="2" t="s">
+      <c r="B136" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B138" s="2" t="s">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="5" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="139" ht="13.5" spans="1:2">
-      <c r="A139" s="2" t="s">
+      <c r="B137" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B139" s="2" t="s">
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="140" ht="13.5" spans="1:2">
-      <c r="A140" s="2" t="s">
+      <c r="B138" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B140" s="2" t="s">
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="5" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="141" ht="13.5" spans="1:2">
-      <c r="A141" s="2" t="s">
+      <c r="B139" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B141" s="2" t="s">
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="5" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="142" ht="13.5" spans="1:2">
-      <c r="A142" s="2" t="s">
+      <c r="B140" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B142" s="2" t="s">
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="143" ht="13.5" spans="1:2">
-      <c r="A143" s="2" t="s">
+      <c r="B141" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B143" s="2" t="s">
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="5" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="144" ht="13.5" spans="1:2">
-      <c r="A144" s="2" t="s">
+      <c r="B142" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B144" s="2" t="s">
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="145" ht="13.5" spans="1:2">
-      <c r="A145" s="2" t="s">
+      <c r="B143" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B145" s="2" t="s">
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="146" ht="13.5" spans="1:2">
-      <c r="A146" s="2" t="s">
+      <c r="B144" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B146" s="2" t="s">
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="5" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="147" ht="13.5" spans="1:2">
-      <c r="A147" s="2" t="s">
+      <c r="B145" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B147" s="2" t="s">
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="5" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="148" ht="13.5" spans="1:2">
-      <c r="A148" s="2" t="s">
+      <c r="B146" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B148" s="2" t="s">
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="5" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="149" ht="13.5" spans="1:2">
-      <c r="A149" s="2" t="s">
+      <c r="B147" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B149" s="2" t="s">
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="5" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="150" ht="13.5" spans="1:2">
-      <c r="A150" s="2" t="s">
+      <c r="B148" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B150" s="2" t="s">
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="5" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="151" ht="13.5" spans="1:2">
-      <c r="A151" s="2" t="s">
+      <c r="B149" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B151" s="2" t="s">
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="5" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="152" ht="13.5" spans="1:2">
-      <c r="A152" s="2" t="s">
+      <c r="B150" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B152" s="2" t="s">
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="5" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="153" ht="13.5" spans="1:2">
-      <c r="A153" s="2" t="s">
+      <c r="B151" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B153" s="2" t="s">
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="5" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="154" ht="13.5" spans="1:2">
-      <c r="A154" s="2" t="s">
+      <c r="B152" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B154" s="2" t="s">
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="5" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="155" ht="13.5" spans="1:2">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
+      <c r="B153" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-    </row>
-    <row r="157" ht="13.5" spans="1:2">
-      <c r="A157" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="158" ht="13.5" spans="1:2">
-      <c r="A158" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B158" s="2" t="s">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="159" ht="13.5" spans="1:2">
-      <c r="A159" s="2" t="s">
+      <c r="B157" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B159" s="2" t="s">
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="5" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="160" ht="13.5" spans="1:2">
-      <c r="A160" s="2" t="s">
+      <c r="B158" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B160" s="2" t="s">
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="161" ht="13.5" spans="1:2">
-      <c r="A161" s="2" t="s">
+      <c r="B159" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B161" s="2" t="s">
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="5" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="162" ht="13.5" spans="1:2">
-      <c r="A162" s="2" t="s">
+      <c r="B160" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B162" s="2" t="s">
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="5" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="163" ht="13.5" spans="1:2">
-      <c r="A163" s="2" t="s">
+      <c r="B161" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B163" s="2" t="s">
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="5" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="164" ht="13.5" spans="1:2">
-      <c r="A164" s="2" t="s">
+      <c r="B162" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B164" s="2" t="s">
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="5" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="165" ht="13.5" spans="1:2">
-      <c r="A165" s="2" t="s">
+      <c r="B163" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B165" s="2" t="s">
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="5" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="166" ht="13.5" spans="1:2">
-      <c r="A166" s="2" t="s">
+      <c r="B164" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B166" s="2" t="s">
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="5" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="167" ht="13.5" spans="1:2">
-      <c r="A167" s="2" t="s">
+      <c r="B165" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B167" s="2" t="s">
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="5" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="168" ht="13.5" spans="1:2">
-      <c r="A168" s="2" t="s">
+      <c r="B166" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B168" s="2" t="s">
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="5" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="169" ht="13.5" spans="1:2">
-      <c r="A169" s="2" t="s">
+      <c r="B167" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B169" s="2" t="s">
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="170" ht="13.5" spans="1:2">
-      <c r="A170" s="2" t="s">
+      <c r="B168" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B170" s="2" t="s">
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="5" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="171" ht="13.5" spans="1:2">
-      <c r="A171" s="2" t="s">
+      <c r="B169" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B171" s="2" t="s">
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="5" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="172" ht="13.5" spans="1:2">
-      <c r="A172" s="2" t="s">
+      <c r="B170" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B172" s="2" t="s">
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="5" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="173" ht="13.5" spans="1:2">
-      <c r="A173" s="2" t="s">
+      <c r="B171" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B173" s="2" t="s">
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="5" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="174" ht="13.5" spans="1:2">
-      <c r="A174" s="2" t="s">
+      <c r="B172" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B174" s="2" t="s">
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="5" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="175" ht="13.5" spans="1:2">
-      <c r="A175" s="2" t="s">
+      <c r="B173" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B175" s="2" t="s">
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="5" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="176" ht="13.5" spans="1:2">
-      <c r="A176" s="2" t="s">
+      <c r="B174" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B176" s="2" t="s">
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="5" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="177" ht="13.5" spans="1:2">
-      <c r="A177" s="2" t="s">
+      <c r="B175" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B177" s="2" t="s">
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="5" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="178" ht="13.5" spans="1:2">
-      <c r="A178" s="2" t="s">
+      <c r="B176" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B178" s="2" t="s">
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="5" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="179" ht="13.5" spans="1:2">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
+      <c r="B177" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-    </row>
-    <row r="181" ht="13.5" spans="1:2">
-      <c r="A181" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="182" ht="13.5" spans="1:2">
-      <c r="A182" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B182" s="2" t="s">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="5" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="183" ht="13.5" spans="1:2">
-      <c r="A183" s="2" t="s">
+      <c r="B181" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B183" s="2" t="s">
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="5" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="184" ht="13.5" spans="1:2">
-      <c r="A184" s="2" t="s">
+      <c r="B182" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B184" s="2" t="s">
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="5" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="185" ht="13.5" spans="1:2">
-      <c r="A185" s="2" t="s">
+      <c r="B183" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B185" s="2" t="s">
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="5" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="186" ht="13.5" spans="1:2">
-      <c r="A186" s="2" t="s">
+      <c r="B184" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B186" s="2" t="s">
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="5" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="187" ht="13.5" spans="1:2">
-      <c r="A187" s="2" t="s">
+      <c r="B185" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B187" s="2" t="s">
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="5" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="188" ht="13.5" spans="1:2">
-      <c r="A188" s="2" t="s">
+      <c r="B186" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B188" s="2" t="s">
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="5" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="189" ht="13.5" spans="1:2">
-      <c r="A189" s="2" t="s">
+      <c r="B187" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B189" s="2" t="s">
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="5" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="190" ht="13.5" spans="1:2">
-      <c r="A190" s="2" t="s">
+      <c r="B188" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B190" s="2" t="s">
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="5" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="191" ht="13.5" spans="1:2">
-      <c r="A191" s="2" t="s">
+      <c r="B189" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B191" s="2" t="s">
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="5" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="192" ht="13.5" spans="1:2">
-      <c r="A192" s="2" t="s">
+      <c r="B190" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B192" s="2" t="s">
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="5" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="193" ht="13.5" spans="1:2">
-      <c r="A193" s="2" t="s">
+      <c r="B191" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B193" s="2" t="s">
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="194" ht="13.5" spans="1:2">
-      <c r="A194" s="2" t="s">
+      <c r="B192" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B194" s="2" t="s">
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="5" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="195" ht="13.5" spans="1:2">
-      <c r="A195" s="2" t="s">
+      <c r="B193" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B195" s="2" t="s">
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="196" ht="13.5" spans="1:2">
-      <c r="A196" s="2" t="s">
+      <c r="B194" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B196" s="2" t="s">
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="5" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="197" ht="13.5" spans="1:2">
-      <c r="A197" s="2" t="s">
+      <c r="B195" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B197" s="2" t="s">
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="198" ht="13.5" spans="1:2">
-      <c r="A198" s="2" t="s">
+      <c r="B196" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B198" s="2" t="s">
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="5" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="199" ht="13.5" spans="1:2">
-      <c r="A199" s="2" t="s">
+      <c r="B197" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B199" s="2" t="s">
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="5" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="200" ht="13.5" spans="1:2">
-      <c r="A200" s="2" t="s">
+      <c r="B198" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B200" s="2" t="s">
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="5" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="201" ht="13.5" spans="1:2">
-      <c r="A201" s="2" t="s">
+      <c r="B199" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B201" s="2" t="s">
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="5" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="202" ht="13.5" spans="1:2">
-      <c r="A202" s="2" t="s">
+      <c r="B200" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B202" s="2" t="s">
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="5" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="203" ht="13.5" spans="1:2">
-      <c r="A203" s="2" t="s">
+      <c r="B201" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B203" s="2" t="s">
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="204" ht="13.5" spans="1:2">
-      <c r="A204" s="2" t="s">
+      <c r="B202" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B204" s="2" t="s">
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="5" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="205" ht="13.5" spans="1:2">
-      <c r="A205" s="2" t="s">
+      <c r="B203" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B205" s="2" t="s">
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="206" ht="13.5" spans="1:2">
-      <c r="A206" s="2" t="s">
+      <c r="B204" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B206" s="2" t="s">
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="5" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="207" ht="13.5" spans="1:2">
-      <c r="A207" s="2" t="s">
+      <c r="B205" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B207" s="2" t="s">
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="5" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="208" ht="13.5" spans="1:2">
-      <c r="A208" s="2" t="s">
+      <c r="B206" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B208" s="2" t="s">
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="5" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="209" ht="13.5" spans="1:2">
-      <c r="A209" s="2" t="s">
+      <c r="B207" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B209" s="2" t="s">
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="5" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="210" ht="13.5" spans="1:2">
-      <c r="A210" s="2" t="s">
+      <c r="B208" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B210" s="2" t="s">
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="5" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="211" ht="13.5" spans="1:2">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-    </row>
-    <row r="212" ht="13.5" spans="1:2">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-    </row>
-    <row r="213" ht="13.5" spans="1:2">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
+      <c r="B209" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/private/ART/中国传统颜色.xlsx
+++ b/private/ART/中国传统颜色.xlsx
@@ -64,10 +64,10 @@
     <t>色系</t>
   </si>
   <si>
+    <t>color</t>
+  </si>
+  <si>
     <t>英名</t>
-  </si>
-  <si>
-    <t>color</t>
   </si>
   <si>
     <t>红色</t>
@@ -2451,10 +2451,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2479,6 +2479,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -2500,21 +2515,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -2524,7 +2524,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2533,6 +2533,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2562,36 +2569,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2608,18 +2585,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2650,13 +2650,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2674,25 +2782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2704,37 +2800,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2746,85 +2824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2847,17 +2847,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2877,6 +2873,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2886,22 +2897,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2921,17 +2927,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2943,10 +2943,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2955,133 +2955,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3436,7 +3436,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J239" sqref="J239"/>
+      <selection pane="bottomLeft" activeCell="N232" sqref="N232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3451,9 +3451,9 @@
     <col min="14" max="14" width="5.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.375" style="1" customWidth="1"/>
     <col min="16" max="16" width="5.375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="24.875" customWidth="1"/>
-    <col min="18" max="18" width="6.375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="17" max="17" width="6.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.875" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -3505,14 +3505,14 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -3528,7 +3528,7 @@
       <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" ht="13.5" spans="1:2">
+    <row r="69" spans="1:2">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
     </row>
@@ -4684,11 +4684,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" ht="13.5" spans="1:2">
+    <row r="87" spans="1:2">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
     </row>
-    <row r="88" ht="13.5" spans="1:2">
+    <row r="88" spans="1:2">
       <c r="A88" s="6" t="s">
         <v>182</v>
       </c>
@@ -5002,11 +5002,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" ht="13.5" spans="1:2">
+    <row r="111" spans="1:2">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
     </row>
-    <row r="112" ht="13.5" spans="1:2">
+    <row r="112" spans="1:2">
       <c r="A112" s="6" t="s">
         <v>226</v>
       </c>
@@ -5210,11 +5210,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" ht="13.5" spans="1:2">
+    <row r="131" spans="1:2">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
     </row>
-    <row r="132" ht="13.5" spans="1:2">
+    <row r="132" spans="1:2">
       <c r="A132" s="6" t="s">
         <v>263</v>
       </c>
@@ -5451,11 +5451,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" ht="13.5" spans="1:2">
+    <row r="154" spans="1:2">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
     </row>
-    <row r="155" ht="13.5" spans="1:2">
+    <row r="155" spans="1:2">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
     </row>
@@ -5701,11 +5701,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" ht="13.5" spans="1:2">
+    <row r="178" spans="1:2">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
     </row>
-    <row r="179" ht="13.5" spans="1:2">
+    <row r="179" spans="1:2">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
     </row>
@@ -6028,69 +6028,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" ht="13.5" spans="1:2">
+    <row r="209" spans="1:2">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
     </row>
-    <row r="210" ht="13.5" spans="1:17">
+    <row r="210" spans="1:18">
       <c r="A210" s="6" t="s">
         <v>407</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="Q210" t="s">
+      <c r="R210" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="211" ht="13.5" spans="1:17">
+    <row r="211" spans="1:18">
       <c r="A211" s="6" t="s">
         <v>410</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="Q211" t="s">
+      <c r="R211" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:18">
       <c r="A213" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q213" t="s">
+      <c r="R213" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:18">
       <c r="A214" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q214" t="s">
+      <c r="R214" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:18">
       <c r="A215" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Q215" t="s">
+      <c r="R215" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="216" ht="13.5" spans="1:17">
+    <row r="216" spans="1:18">
       <c r="A216" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="Q216" t="s">
+      <c r="R216" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:18">
       <c r="A217" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Q217" t="s">
+      <c r="R217" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6124,7 +6124,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="224" ht="13.5" spans="1:1">
+    <row r="224" spans="1:1">
       <c r="A224" s="6" t="s">
         <v>206</v>
       </c>
@@ -6139,1706 +6139,1706 @@
         <v>423</v>
       </c>
     </row>
-    <row r="233" spans="2:17">
+    <row r="233" spans="2:18">
       <c r="B233" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="Q233" s="1" t="s">
+      <c r="R233" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="234" spans="2:17">
+    <row r="234" spans="2:18">
       <c r="B234" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="Q234" s="1" t="s">
+      <c r="R234" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="235" spans="2:17">
+    <row r="235" spans="2:18">
       <c r="B235" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="Q235" s="1" t="s">
+      <c r="R235" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="236" spans="2:17">
+    <row r="236" spans="2:18">
       <c r="B236" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="Q236" s="1" t="s">
+      <c r="R236" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="237" spans="2:17">
+    <row r="237" spans="2:18">
       <c r="B237" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="Q237" s="1" t="s">
+      <c r="R237" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="238" spans="2:17">
+    <row r="238" spans="2:18">
       <c r="B238" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="Q238" s="1" t="s">
+      <c r="R238" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="239" spans="2:17">
+    <row r="239" spans="2:18">
       <c r="B239" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="Q239" s="1" t="s">
+      <c r="R239" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:18">
       <c r="A240" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="Q240" s="1" t="s">
+      <c r="R240" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="241" spans="2:17">
+    <row r="241" spans="2:18">
       <c r="B241" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="Q241" s="1" t="s">
+      <c r="R241" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="242" spans="2:17">
+    <row r="242" spans="2:18">
       <c r="B242" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="Q242" s="1" t="s">
+      <c r="R242" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="243" spans="2:17">
+    <row r="243" spans="2:18">
       <c r="B243" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="Q243" s="1" t="s">
+      <c r="R243" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="244" spans="2:17">
+    <row r="244" spans="2:18">
       <c r="B244" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="Q244" s="1" t="s">
+      <c r="R244" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="245" spans="2:17">
+    <row r="245" spans="2:18">
       <c r="B245" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="Q245" s="1" t="s">
+      <c r="R245" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="246" spans="2:17">
+    <row r="246" spans="2:18">
       <c r="B246" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="Q246" s="1" t="s">
+      <c r="R246" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="247" spans="2:17">
+    <row r="247" spans="2:18">
       <c r="B247" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="Q247" s="1" t="s">
+      <c r="R247" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="248" spans="2:17">
+    <row r="248" spans="2:18">
       <c r="B248" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="Q248" s="1" t="s">
+      <c r="R248" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="249" spans="2:17">
+    <row r="249" spans="2:18">
       <c r="B249" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="Q249" s="1" t="s">
+      <c r="R249" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="250" spans="2:17">
+    <row r="250" spans="2:18">
       <c r="B250" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="Q250" s="1" t="s">
+      <c r="R250" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="251" spans="2:17">
+    <row r="251" spans="2:18">
       <c r="B251" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="Q251" s="1" t="s">
+      <c r="R251" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="252" spans="2:17">
+    <row r="252" spans="2:18">
       <c r="B252" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="Q252" s="1" t="s">
+      <c r="R252" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="253" spans="2:17">
+    <row r="253" spans="2:18">
       <c r="B253" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="Q253" s="1" t="s">
+      <c r="R253" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="254" spans="2:17">
+    <row r="254" spans="2:18">
       <c r="B254" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="Q254" s="1" t="s">
+      <c r="R254" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="255" spans="2:17">
+    <row r="255" spans="2:18">
       <c r="B255" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="Q255" s="1" t="s">
+      <c r="R255" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="256" spans="2:17">
+    <row r="256" spans="2:18">
       <c r="B256" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="Q256" s="1" t="s">
+      <c r="R256" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="257" spans="2:17">
+    <row r="257" spans="2:18">
       <c r="B257" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="Q257" s="1" t="s">
+      <c r="R257" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="258" spans="2:17">
+    <row r="258" spans="2:18">
       <c r="B258" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="Q258" s="1" t="s">
+      <c r="R258" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="259" spans="2:17">
+    <row r="259" spans="2:18">
       <c r="B259" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="Q259" s="1" t="s">
+      <c r="R259" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="260" spans="2:17">
+    <row r="260" spans="2:18">
       <c r="B260" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="Q260" s="1" t="s">
+      <c r="R260" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="261" spans="2:17">
+    <row r="261" spans="2:18">
       <c r="B261" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="Q261" s="1" t="s">
+      <c r="R261" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="262" spans="2:17">
+    <row r="262" spans="2:18">
       <c r="B262" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="Q262" s="1" t="s">
+      <c r="R262" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="263" spans="2:17">
+    <row r="263" spans="2:18">
       <c r="B263" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="Q263" s="1" t="s">
+      <c r="R263" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="264" spans="2:17">
+    <row r="264" spans="2:18">
       <c r="B264" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="Q264" s="1" t="s">
+      <c r="R264" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="265" spans="2:17">
+    <row r="265" spans="2:18">
       <c r="B265" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="Q265" s="1" t="s">
+      <c r="R265" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="266" spans="2:17">
+    <row r="266" spans="2:18">
       <c r="B266" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="Q266" s="1" t="s">
+      <c r="R266" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="267" spans="2:17">
+    <row r="267" spans="2:18">
       <c r="B267" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="Q267" s="1" t="s">
+      <c r="R267" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="268" spans="2:17">
+    <row r="268" spans="2:18">
       <c r="B268" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="Q268" s="1" t="s">
+      <c r="R268" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="269" spans="2:17">
+    <row r="269" spans="2:18">
       <c r="B269" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="Q269" s="1" t="s">
+      <c r="R269" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="270" spans="2:17">
+    <row r="270" spans="2:18">
       <c r="B270" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="Q270" s="1" t="s">
+      <c r="R270" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="271" spans="2:17">
+    <row r="271" spans="2:18">
       <c r="B271" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="Q271" s="1" t="s">
+      <c r="R271" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="272" spans="2:17">
+    <row r="272" spans="2:18">
       <c r="B272" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="Q272" s="1" t="s">
+      <c r="R272" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="273" spans="2:17">
+    <row r="273" spans="2:18">
       <c r="B273" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="Q273" s="1" t="s">
+      <c r="R273" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="274" spans="2:17">
+    <row r="274" spans="2:18">
       <c r="B274" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="Q274" s="1" t="s">
+      <c r="R274" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="275" spans="2:17">
+    <row r="275" spans="2:18">
       <c r="B275" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="Q275" s="1" t="s">
+      <c r="R275" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="276" spans="2:17">
+    <row r="276" spans="2:18">
       <c r="B276" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="Q276" s="1" t="s">
+      <c r="R276" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="277" spans="2:17">
+    <row r="277" spans="2:18">
       <c r="B277" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="Q277" s="1" t="s">
+      <c r="R277" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="278" spans="2:17">
+    <row r="278" spans="2:18">
       <c r="B278" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="Q278" s="1" t="s">
+      <c r="R278" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="279" spans="2:17">
+    <row r="279" spans="2:18">
       <c r="B279" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="Q279" s="1" t="s">
+      <c r="R279" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="280" spans="2:17">
+    <row r="280" spans="2:18">
       <c r="B280" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="Q280" s="1" t="s">
+      <c r="R280" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="281" spans="2:17">
+    <row r="281" spans="2:18">
       <c r="B281" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="Q281" s="1" t="s">
+      <c r="R281" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="282" spans="2:17">
+    <row r="282" spans="2:18">
       <c r="B282" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="Q282" s="1" t="s">
+      <c r="R282" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="283" spans="2:17">
+    <row r="283" spans="2:18">
       <c r="B283" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="Q283" s="1" t="s">
+      <c r="R283" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="284" spans="2:17">
+    <row r="284" spans="2:18">
       <c r="B284" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="Q284" s="1" t="s">
+      <c r="R284" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="285" spans="2:17">
+    <row r="285" spans="2:18">
       <c r="B285" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="Q285" s="1" t="s">
+      <c r="R285" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="286" spans="2:17">
+    <row r="286" spans="2:18">
       <c r="B286" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="Q286" s="1" t="s">
+      <c r="R286" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="287" spans="2:17">
+    <row r="287" spans="2:18">
       <c r="B287" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="Q287" s="1" t="s">
+      <c r="R287" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="288" spans="2:17">
+    <row r="288" spans="2:18">
       <c r="B288" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="Q288" s="1" t="s">
+      <c r="R288" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="289" spans="2:17">
+    <row r="289" spans="2:18">
       <c r="B289" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="Q289" s="1" t="s">
+      <c r="R289" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="290" spans="2:17">
+    <row r="290" spans="2:18">
       <c r="B290" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="Q290" s="1" t="s">
+      <c r="R290" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="291" spans="2:17">
+    <row r="291" spans="2:18">
       <c r="B291" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="Q291" s="1" t="s">
+      <c r="R291" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="292" spans="2:17">
+    <row r="292" spans="2:18">
       <c r="B292" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="Q292" s="1" t="s">
+      <c r="R292" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="293" spans="2:17">
+    <row r="293" spans="2:18">
       <c r="B293" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="Q293" s="1" t="s">
+      <c r="R293" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="294" spans="2:17">
+    <row r="294" spans="2:18">
       <c r="B294" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="Q294" s="1" t="s">
+      <c r="R294" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="295" spans="2:17">
+    <row r="295" spans="2:18">
       <c r="B295" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="Q295" s="1" t="s">
+      <c r="R295" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="296" spans="2:17">
+    <row r="296" spans="2:18">
       <c r="B296" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="Q296" s="1" t="s">
+      <c r="R296" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="297" spans="2:17">
+    <row r="297" spans="2:18">
       <c r="B297" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="Q297" s="1" t="s">
+      <c r="R297" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="298" spans="2:17">
+    <row r="298" spans="2:18">
       <c r="B298" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="Q298" s="1" t="s">
+      <c r="R298" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="299" spans="2:17">
+    <row r="299" spans="2:18">
       <c r="B299" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="Q299" s="1" t="s">
+      <c r="R299" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="300" spans="2:17">
+    <row r="300" spans="2:18">
       <c r="B300" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="Q300" s="1" t="s">
+      <c r="R300" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="301" spans="2:17">
+    <row r="301" spans="2:18">
       <c r="B301" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="Q301" s="1" t="s">
+      <c r="R301" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="302" spans="2:17">
+    <row r="302" spans="2:18">
       <c r="B302" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="Q302" s="1" t="s">
+      <c r="R302" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="303" spans="2:17">
+    <row r="303" spans="2:18">
       <c r="B303" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="Q303" s="1" t="s">
+      <c r="R303" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="304" spans="2:17">
+    <row r="304" spans="2:18">
       <c r="B304" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="Q304" s="1" t="s">
+      <c r="R304" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="305" spans="2:17">
+    <row r="305" spans="2:18">
       <c r="B305" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="Q305" s="1" t="s">
+      <c r="R305" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="306" spans="2:17">
+    <row r="306" spans="2:18">
       <c r="B306" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="Q306" s="1" t="s">
+      <c r="R306" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="307" spans="2:17">
+    <row r="307" spans="2:18">
       <c r="B307" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="Q307" s="1" t="s">
+      <c r="R307" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="308" spans="2:17">
+    <row r="308" spans="2:18">
       <c r="B308" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="Q308" s="1" t="s">
+      <c r="R308" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="309" spans="2:17">
+    <row r="309" spans="2:18">
       <c r="B309" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="Q309" s="1" t="s">
+      <c r="R309" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="310" spans="2:17">
+    <row r="310" spans="2:18">
       <c r="B310" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="Q310" s="1" t="s">
+      <c r="R310" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="311" spans="2:17">
+    <row r="311" spans="2:18">
       <c r="B311" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="Q311" s="1" t="s">
+      <c r="R311" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="312" spans="2:17">
+    <row r="312" spans="2:18">
       <c r="B312" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="Q312" s="1" t="s">
+      <c r="R312" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="313" spans="2:17">
+    <row r="313" spans="2:18">
       <c r="B313" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="Q313" s="1" t="s">
+      <c r="R313" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="314" spans="2:17">
+    <row r="314" spans="2:18">
       <c r="B314" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="Q314" s="1" t="s">
+      <c r="R314" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="315" spans="2:17">
+    <row r="315" spans="2:18">
       <c r="B315" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="Q315" s="1" t="s">
+      <c r="R315" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="316" spans="2:17">
+    <row r="316" spans="2:18">
       <c r="B316" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="Q316" s="1" t="s">
+      <c r="R316" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="317" spans="2:17">
+    <row r="317" spans="2:18">
       <c r="B317" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="Q317" s="1" t="s">
+      <c r="R317" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="318" spans="2:17">
+    <row r="318" spans="2:18">
       <c r="B318" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="Q318" s="1" t="s">
+      <c r="R318" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="319" spans="2:17">
+    <row r="319" spans="2:18">
       <c r="B319" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="Q319" s="1" t="s">
+      <c r="R319" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="320" spans="2:17">
+    <row r="320" spans="2:18">
       <c r="B320" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="Q320" s="1" t="s">
+      <c r="R320" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="321" spans="2:17">
+    <row r="321" spans="2:18">
       <c r="B321" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="Q321" s="1" t="s">
+      <c r="R321" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="322" spans="2:17">
+    <row r="322" spans="2:18">
       <c r="B322" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="Q322" s="1" t="s">
+      <c r="R322" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="323" spans="2:17">
+    <row r="323" spans="2:18">
       <c r="B323" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="Q323" s="1" t="s">
+      <c r="R323" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="324" spans="2:17">
+    <row r="324" spans="2:18">
       <c r="B324" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="Q324" s="1" t="s">
+      <c r="R324" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="325" spans="2:17">
+    <row r="325" spans="2:18">
       <c r="B325" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="Q325" s="1" t="s">
+      <c r="R325" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="326" spans="2:17">
+    <row r="326" spans="2:18">
       <c r="B326" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="Q326" s="1" t="s">
+      <c r="R326" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="327" spans="2:17">
+    <row r="327" spans="2:18">
       <c r="B327" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="Q327" s="1" t="s">
+      <c r="R327" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="328" spans="2:17">
+    <row r="328" spans="2:18">
       <c r="B328" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="Q328" s="1" t="s">
+      <c r="R328" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="329" spans="2:17">
+    <row r="329" spans="2:18">
       <c r="B329" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="Q329" s="1" t="s">
+      <c r="R329" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="330" spans="2:17">
+    <row r="330" spans="2:18">
       <c r="B330" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="Q330" s="1" t="s">
+      <c r="R330" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="331" spans="2:17">
+    <row r="331" spans="2:18">
       <c r="B331" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="Q331" s="1" t="s">
+      <c r="R331" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="332" spans="2:17">
+    <row r="332" spans="2:18">
       <c r="B332" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="Q332" s="1" t="s">
+      <c r="R332" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="333" spans="2:17">
+    <row r="333" spans="2:18">
       <c r="B333" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="Q333" s="1" t="s">
+      <c r="R333" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="334" spans="2:17">
+    <row r="334" spans="2:18">
       <c r="B334" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="Q334" s="1" t="s">
+      <c r="R334" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="335" spans="2:17">
+    <row r="335" spans="2:18">
       <c r="B335" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="Q335" s="1" t="s">
+      <c r="R335" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="336" spans="2:17">
+    <row r="336" spans="2:18">
       <c r="B336" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="Q336" s="1" t="s">
+      <c r="R336" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="337" spans="2:17">
+    <row r="337" spans="2:18">
       <c r="B337" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="Q337" s="1" t="s">
+      <c r="R337" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="338" spans="2:17">
+    <row r="338" spans="2:18">
       <c r="B338" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="Q338" s="1" t="s">
+      <c r="R338" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="339" spans="2:17">
+    <row r="339" spans="2:18">
       <c r="B339" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="Q339" s="1" t="s">
+      <c r="R339" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="340" spans="2:17">
+    <row r="340" spans="2:18">
       <c r="B340" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="Q340" s="1" t="s">
+      <c r="R340" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="341" spans="2:17">
+    <row r="341" spans="2:18">
       <c r="B341" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="Q341" s="1" t="s">
+      <c r="R341" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="342" spans="2:17">
+    <row r="342" spans="2:18">
       <c r="B342" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="Q342" s="1" t="s">
+      <c r="R342" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="343" spans="2:17">
+    <row r="343" spans="2:18">
       <c r="B343" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="Q343" s="1" t="s">
+      <c r="R343" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="344" spans="2:17">
+    <row r="344" spans="2:18">
       <c r="B344" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="Q344" s="1" t="s">
+      <c r="R344" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="345" spans="2:17">
+    <row r="345" spans="2:18">
       <c r="B345" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="Q345" s="1" t="s">
+      <c r="R345" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="346" spans="2:17">
+    <row r="346" spans="2:18">
       <c r="B346" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="Q346" s="1" t="s">
+      <c r="R346" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="347" spans="2:17">
+    <row r="347" spans="2:18">
       <c r="B347" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="Q347" s="1" t="s">
+      <c r="R347" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="348" spans="2:17">
+    <row r="348" spans="2:18">
       <c r="B348" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="Q348" s="1" t="s">
+      <c r="R348" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="349" spans="2:17">
+    <row r="349" spans="2:18">
       <c r="B349" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="Q349" s="1" t="s">
+      <c r="R349" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="350" spans="2:17">
+    <row r="350" spans="2:18">
       <c r="B350" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="Q350" s="1" t="s">
+      <c r="R350" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="351" spans="2:17">
+    <row r="351" spans="2:18">
       <c r="B351" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="Q351" s="1" t="s">
+      <c r="R351" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="352" spans="2:17">
+    <row r="352" spans="2:18">
       <c r="B352" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="Q352" s="1" t="s">
+      <c r="R352" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="353" spans="2:17">
+    <row r="353" spans="2:18">
       <c r="B353" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="Q353" s="1" t="s">
+      <c r="R353" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="354" spans="2:17">
+    <row r="354" spans="2:18">
       <c r="B354" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="Q354" s="1" t="s">
+      <c r="R354" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="355" spans="2:17">
+    <row r="355" spans="2:18">
       <c r="B355" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="Q355" s="1" t="s">
+      <c r="R355" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="356" spans="2:17">
+    <row r="356" spans="2:18">
       <c r="B356" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="Q356" s="1" t="s">
+      <c r="R356" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="357" spans="2:17">
+    <row r="357" spans="2:18">
       <c r="B357" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="Q357" s="1" t="s">
+      <c r="R357" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="358" spans="2:17">
+    <row r="358" spans="2:18">
       <c r="B358" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="Q358" s="1" t="s">
+      <c r="R358" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="359" spans="2:17">
+    <row r="359" spans="2:18">
       <c r="B359" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="Q359" s="1" t="s">
+      <c r="R359" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="360" spans="2:17">
+    <row r="360" spans="2:18">
       <c r="B360" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="Q360" s="1" t="s">
+      <c r="R360" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="361" spans="2:17">
+    <row r="361" spans="2:18">
       <c r="B361" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="Q361" s="1" t="s">
+      <c r="R361" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="362" spans="2:17">
+    <row r="362" spans="2:18">
       <c r="B362" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="Q362" s="1" t="s">
+      <c r="R362" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="363" spans="2:17">
+    <row r="363" spans="2:18">
       <c r="B363" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="Q363" s="1" t="s">
+      <c r="R363" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="364" spans="2:17">
+    <row r="364" spans="2:18">
       <c r="B364" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="Q364" s="1" t="s">
+      <c r="R364" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="365" spans="2:17">
+    <row r="365" spans="2:18">
       <c r="B365" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="Q365" s="1" t="s">
+      <c r="R365" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="366" spans="2:17">
+    <row r="366" spans="2:18">
       <c r="B366" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="Q366" s="1" t="s">
+      <c r="R366" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="367" spans="2:17">
+    <row r="367" spans="2:18">
       <c r="B367" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="Q367" s="1" t="s">
+      <c r="R367" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="368" spans="2:17">
+    <row r="368" spans="2:18">
       <c r="B368" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="Q368" s="1" t="s">
+      <c r="R368" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="369" spans="2:17">
+    <row r="369" spans="2:18">
       <c r="B369" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="Q369" s="1" t="s">
+      <c r="R369" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="370" spans="2:17">
+    <row r="370" spans="2:18">
       <c r="B370" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="Q370" s="1" t="s">
+      <c r="R370" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="371" spans="2:17">
+    <row r="371" spans="2:18">
       <c r="B371" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="Q371" s="1" t="s">
+      <c r="R371" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="372" spans="2:17">
+    <row r="372" spans="2:18">
       <c r="B372" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="Q372" s="1" t="s">
+      <c r="R372" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="375" spans="17:17">
-      <c r="Q375" t="s">
+    <row r="375" spans="18:18">
+      <c r="R375" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="376" spans="17:17">
-      <c r="Q376" t="s">
+    <row r="376" spans="18:18">
+      <c r="R376" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="377" spans="17:17">
-      <c r="Q377" t="s">
+    <row r="377" spans="18:18">
+      <c r="R377" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="378" spans="17:17">
-      <c r="Q378" t="s">
+    <row r="378" spans="18:18">
+      <c r="R378" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="379" spans="17:17">
-      <c r="Q379" t="s">
+    <row r="379" spans="18:18">
+      <c r="R379" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="380" spans="17:17">
-      <c r="Q380" t="s">
+    <row r="380" spans="18:18">
+      <c r="R380" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="381" spans="17:17">
-      <c r="Q381" t="s">
+    <row r="381" spans="18:18">
+      <c r="R381" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="382" spans="17:17">
-      <c r="Q382" t="s">
+    <row r="382" spans="18:18">
+      <c r="R382" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="383" spans="17:17">
-      <c r="Q383" t="s">
+    <row r="383" spans="18:18">
+      <c r="R383" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="384" spans="17:17">
-      <c r="Q384" t="s">
+    <row r="384" spans="18:18">
+      <c r="R384" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="385" spans="17:17">
-      <c r="Q385" t="s">
+    <row r="385" spans="18:18">
+      <c r="R385" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="386" spans="17:17">
-      <c r="Q386" t="s">
+    <row r="386" spans="18:18">
+      <c r="R386" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="387" spans="17:17">
-      <c r="Q387" t="s">
+    <row r="387" spans="18:18">
+      <c r="R387" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="388" spans="17:17">
-      <c r="Q388" t="s">
+    <row r="388" spans="18:18">
+      <c r="R388" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="389" spans="17:17">
-      <c r="Q389" t="s">
+    <row r="389" spans="18:18">
+      <c r="R389" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="390" spans="17:17">
-      <c r="Q390" t="s">
+    <row r="390" spans="18:18">
+      <c r="R390" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="391" spans="17:17">
-      <c r="Q391" t="s">
+    <row r="391" spans="18:18">
+      <c r="R391" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="392" spans="17:17">
-      <c r="Q392" t="s">
+    <row r="392" spans="18:18">
+      <c r="R392" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="393" spans="17:17">
-      <c r="Q393" t="s">
+    <row r="393" spans="18:18">
+      <c r="R393" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="394" spans="17:17">
-      <c r="Q394" t="s">
+    <row r="394" spans="18:18">
+      <c r="R394" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="395" spans="17:17">
-      <c r="Q395" t="s">
+    <row r="395" spans="18:18">
+      <c r="R395" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="396" spans="17:17">
-      <c r="Q396" t="s">
+    <row r="396" spans="18:18">
+      <c r="R396" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="397" spans="17:17">
-      <c r="Q397" t="s">
+    <row r="397" spans="18:18">
+      <c r="R397" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="398" spans="17:17">
-      <c r="Q398" t="s">
+    <row r="398" spans="18:18">
+      <c r="R398" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="399" spans="17:17">
-      <c r="Q399" t="s">
+    <row r="399" spans="18:18">
+      <c r="R399" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="400" spans="17:17">
-      <c r="Q400" t="s">
+    <row r="400" spans="18:18">
+      <c r="R400" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="401" spans="17:17">
-      <c r="Q401" t="s">
+    <row r="401" spans="18:18">
+      <c r="R401" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="402" spans="17:17">
-      <c r="Q402" t="s">
+    <row r="402" spans="18:18">
+      <c r="R402" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="403" spans="17:17">
-      <c r="Q403" t="s">
+    <row r="403" spans="18:18">
+      <c r="R403" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="404" spans="17:17">
-      <c r="Q404" t="s">
+    <row r="404" spans="18:18">
+      <c r="R404" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="405" spans="17:17">
-      <c r="Q405" t="s">
+    <row r="405" spans="18:18">
+      <c r="R405" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="406" spans="17:17">
-      <c r="Q406" t="s">
+    <row r="406" spans="18:18">
+      <c r="R406" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="407" spans="17:17">
-      <c r="Q407" t="s">
+    <row r="407" spans="18:18">
+      <c r="R407" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="408" spans="17:17">
-      <c r="Q408" t="s">
+    <row r="408" spans="18:18">
+      <c r="R408" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="409" spans="17:17">
-      <c r="Q409" t="s">
+    <row r="409" spans="18:18">
+      <c r="R409" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="410" spans="17:17">
-      <c r="Q410" t="s">
+    <row r="410" spans="18:18">
+      <c r="R410" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="411" spans="17:17">
-      <c r="Q411" t="s">
+    <row r="411" spans="18:18">
+      <c r="R411" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="412" spans="17:17">
-      <c r="Q412" t="s">
+    <row r="412" spans="18:18">
+      <c r="R412" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="413" spans="17:17">
-      <c r="Q413" t="s">
+    <row r="413" spans="18:18">
+      <c r="R413" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="414" spans="17:17">
-      <c r="Q414" t="s">
+    <row r="414" spans="18:18">
+      <c r="R414" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="415" spans="17:17">
-      <c r="Q415" t="s">
+    <row r="415" spans="18:18">
+      <c r="R415" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="416" spans="17:17">
-      <c r="Q416" t="s">
+    <row r="416" spans="18:18">
+      <c r="R416" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="417" spans="17:17">
-      <c r="Q417" t="s">
+    <row r="417" spans="18:18">
+      <c r="R417" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="418" spans="17:17">
-      <c r="Q418" t="s">
+    <row r="418" spans="18:18">
+      <c r="R418" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="419" spans="17:17">
-      <c r="Q419" t="s">
+    <row r="419" spans="18:18">
+      <c r="R419" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="420" spans="17:17">
-      <c r="Q420" t="s">
+    <row r="420" spans="18:18">
+      <c r="R420" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="421" spans="17:17">
-      <c r="Q421" t="s">
+    <row r="421" spans="18:18">
+      <c r="R421" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="422" spans="17:17">
-      <c r="Q422" t="s">
+    <row r="422" spans="18:18">
+      <c r="R422" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="423" spans="17:17">
-      <c r="Q423" t="s">
+    <row r="423" spans="18:18">
+      <c r="R423" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="424" spans="17:17">
-      <c r="Q424" t="s">
+    <row r="424" spans="18:18">
+      <c r="R424" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="425" spans="17:17">
-      <c r="Q425" t="s">
+    <row r="425" spans="18:18">
+      <c r="R425" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="426" spans="17:17">
-      <c r="Q426" t="s">
+    <row r="426" spans="18:18">
+      <c r="R426" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="427" spans="17:17">
-      <c r="Q427" t="s">
+    <row r="427" spans="18:18">
+      <c r="R427" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="428" spans="17:17">
-      <c r="Q428" t="s">
+    <row r="428" spans="18:18">
+      <c r="R428" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="429" spans="17:17">
-      <c r="Q429" t="s">
+    <row r="429" spans="18:18">
+      <c r="R429" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="430" spans="17:17">
-      <c r="Q430" t="s">
+    <row r="430" spans="18:18">
+      <c r="R430" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="431" spans="17:17">
-      <c r="Q431" t="s">
+    <row r="431" spans="18:18">
+      <c r="R431" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="432" spans="17:17">
-      <c r="Q432" t="s">
+    <row r="432" spans="18:18">
+      <c r="R432" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="433" spans="17:17">
-      <c r="Q433" t="s">
+    <row r="433" spans="18:18">
+      <c r="R433" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="434" spans="17:17">
-      <c r="Q434" t="s">
+    <row r="434" spans="18:18">
+      <c r="R434" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="435" spans="17:17">
-      <c r="Q435" t="s">
+    <row r="435" spans="18:18">
+      <c r="R435" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="436" spans="17:17">
-      <c r="Q436" t="s">
+    <row r="436" spans="18:18">
+      <c r="R436" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="437" spans="17:17">
-      <c r="Q437" t="s">
+    <row r="437" spans="18:18">
+      <c r="R437" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="438" spans="17:17">
-      <c r="Q438" t="s">
+    <row r="438" spans="18:18">
+      <c r="R438" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="439" spans="17:17">
-      <c r="Q439" t="s">
+    <row r="439" spans="18:18">
+      <c r="R439" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="440" spans="17:17">
-      <c r="Q440" t="s">
+    <row r="440" spans="18:18">
+      <c r="R440" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="441" spans="17:17">
-      <c r="Q441" t="s">
+    <row r="441" spans="18:18">
+      <c r="R441" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="442" spans="17:17">
-      <c r="Q442" t="s">
+    <row r="442" spans="18:18">
+      <c r="R442" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="443" spans="17:17">
-      <c r="Q443" t="s">
+    <row r="443" spans="18:18">
+      <c r="R443" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="444" spans="17:17">
-      <c r="Q444" t="s">
+    <row r="444" spans="18:18">
+      <c r="R444" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="445" spans="17:17">
-      <c r="Q445" t="s">
+    <row r="445" spans="18:18">
+      <c r="R445" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="446" spans="17:17">
-      <c r="Q446" t="s">
+    <row r="446" spans="18:18">
+      <c r="R446" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="447" spans="17:17">
-      <c r="Q447" t="s">
+    <row r="447" spans="18:18">
+      <c r="R447" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="448" spans="17:17">
-      <c r="Q448" t="s">
+    <row r="448" spans="18:18">
+      <c r="R448" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="449" spans="17:17">
-      <c r="Q449" t="s">
+    <row r="449" spans="18:18">
+      <c r="R449" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="450" spans="17:17">
-      <c r="Q450" t="s">
+    <row r="450" spans="18:18">
+      <c r="R450" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="451" spans="17:17">
-      <c r="Q451" t="s">
+    <row r="451" spans="18:18">
+      <c r="R451" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="452" spans="17:17">
-      <c r="Q452" t="s">
+    <row r="452" spans="18:18">
+      <c r="R452" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="453" spans="17:17">
-      <c r="Q453" t="s">
+    <row r="453" spans="18:18">
+      <c r="R453" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="454" spans="17:17">
-      <c r="Q454" t="s">
+    <row r="454" spans="18:18">
+      <c r="R454" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="455" spans="17:17">
-      <c r="Q455" t="s">
+    <row r="455" spans="18:18">
+      <c r="R455" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="456" spans="17:17">
-      <c r="Q456" t="s">
+    <row r="456" spans="18:18">
+      <c r="R456" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="457" spans="17:17">
-      <c r="Q457" t="s">
+    <row r="457" spans="18:18">
+      <c r="R457" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="458" spans="17:17">
-      <c r="Q458" t="s">
+    <row r="458" spans="18:18">
+      <c r="R458" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="459" spans="17:17">
-      <c r="Q459" t="s">
+    <row r="459" spans="18:18">
+      <c r="R459" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="460" spans="17:17">
-      <c r="Q460" t="s">
+    <row r="460" spans="18:18">
+      <c r="R460" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="461" spans="17:17">
-      <c r="Q461" t="s">
+    <row r="461" spans="18:18">
+      <c r="R461" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="462" spans="17:17">
-      <c r="Q462" t="s">
+    <row r="462" spans="18:18">
+      <c r="R462" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="463" spans="17:17">
-      <c r="Q463" t="s">
+    <row r="463" spans="18:18">
+      <c r="R463" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="464" spans="17:17">
-      <c r="Q464" t="s">
+    <row r="464" spans="18:18">
+      <c r="R464" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="465" spans="17:17">
-      <c r="Q465" t="s">
+    <row r="465" spans="18:18">
+      <c r="R465" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="466" spans="17:17">
-      <c r="Q466" t="s">
+    <row r="466" spans="18:18">
+      <c r="R466" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="467" spans="17:17">
-      <c r="Q467" t="s">
+    <row r="467" spans="18:18">
+      <c r="R467" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="468" spans="17:17">
-      <c r="Q468" t="s">
+    <row r="468" spans="18:18">
+      <c r="R468" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="469" spans="17:17">
-      <c r="Q469" t="s">
+    <row r="469" spans="18:18">
+      <c r="R469" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="470" spans="17:17">
-      <c r="Q470" t="s">
+    <row r="470" spans="18:18">
+      <c r="R470" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="471" spans="17:17">
-      <c r="Q471" t="s">
+    <row r="471" spans="18:18">
+      <c r="R471" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="472" spans="17:17">
-      <c r="Q472" t="s">
+    <row r="472" spans="18:18">
+      <c r="R472" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="473" spans="17:17">
-      <c r="Q473" t="s">
+    <row r="473" spans="18:18">
+      <c r="R473" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="474" spans="17:17">
-      <c r="Q474" t="s">
+    <row r="474" spans="18:18">
+      <c r="R474" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="475" spans="17:17">
-      <c r="Q475" t="s">
+    <row r="475" spans="18:18">
+      <c r="R475" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="476" spans="17:17">
-      <c r="Q476" t="s">
+    <row r="476" spans="18:18">
+      <c r="R476" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="477" spans="17:17">
-      <c r="Q477" t="s">
+    <row r="477" spans="18:18">
+      <c r="R477" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="478" spans="17:17">
-      <c r="Q478" t="s">
+    <row r="478" spans="18:18">
+      <c r="R478" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="479" spans="17:17">
-      <c r="Q479" t="s">
+    <row r="479" spans="18:18">
+      <c r="R479" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="480" spans="17:17">
-      <c r="Q480" t="s">
+    <row r="480" spans="18:18">
+      <c r="R480" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="481" spans="17:17">
-      <c r="Q481" t="s">
+    <row r="481" spans="18:18">
+      <c r="R481" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="482" spans="17:17">
-      <c r="Q482" t="s">
+    <row r="482" spans="18:18">
+      <c r="R482" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="483" spans="17:17">
-      <c r="Q483" t="s">
+    <row r="483" spans="18:18">
+      <c r="R483" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="484" spans="17:17">
-      <c r="Q484" t="s">
+    <row r="484" spans="18:18">
+      <c r="R484" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="485" spans="17:17">
-      <c r="Q485" t="s">
+    <row r="485" spans="18:18">
+      <c r="R485" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="486" spans="17:17">
-      <c r="Q486" t="s">
+    <row r="486" spans="18:18">
+      <c r="R486" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="487" spans="17:17">
-      <c r="Q487" t="s">
+    <row r="487" spans="18:18">
+      <c r="R487" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="488" spans="17:17">
-      <c r="Q488" t="s">
+    <row r="488" spans="18:18">
+      <c r="R488" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="489" spans="17:17">
-      <c r="Q489" t="s">
+    <row r="489" spans="18:18">
+      <c r="R489" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="490" spans="17:17">
-      <c r="Q490" t="s">
+    <row r="490" spans="18:18">
+      <c r="R490" t="s">
         <v>809</v>
       </c>
     </row>

--- a/private/ART/中国传统颜色.xlsx
+++ b/private/ART/中国传统颜色.xlsx
@@ -1297,7 +1297,7 @@
     <t>#FAEBD7</t>
   </si>
   <si>
-    <t>AntiqueWhite </t>
+    <t>AntiqueWhite</t>
   </si>
   <si>
     <t>#00FFFF</t>
@@ -2451,10 +2451,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2479,6 +2479,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2494,29 +2530,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2524,15 +2540,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2546,10 +2562,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2569,33 +2600,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2603,21 +2609,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2644,6 +2644,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2662,169 +2824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2835,26 +2835,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2869,6 +2849,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2888,15 +2877,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2908,6 +2888,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2930,8 +2919,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2943,10 +2943,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2955,133 +2955,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3434,9 +3434,9 @@
   <dimension ref="A1:R490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N232" sqref="N232"/>
+      <selection pane="bottomLeft" activeCell="S238" sqref="S238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4447,7 +4447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" ht="13.5" spans="1:2">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
     </row>
@@ -4684,11 +4684,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" ht="13.5" spans="1:2">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" ht="13.5" spans="1:2">
       <c r="A88" s="6" t="s">
         <v>182</v>
       </c>
@@ -5002,11 +5002,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" ht="13.5" spans="1:2">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" ht="13.5" spans="1:2">
       <c r="A112" s="6" t="s">
         <v>226</v>
       </c>
@@ -5210,11 +5210,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" ht="13.5" spans="1:2">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" ht="13.5" spans="1:2">
       <c r="A132" s="6" t="s">
         <v>263</v>
       </c>
@@ -5451,11 +5451,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" ht="13.5" spans="1:2">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" ht="13.5" spans="1:2">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
     </row>
@@ -5701,11 +5701,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" ht="13.5" spans="1:2">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" ht="13.5" spans="1:2">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
     </row>
@@ -6028,11 +6028,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" ht="13.5" spans="1:2">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
     </row>
-    <row r="210" spans="1:18">
+    <row r="210" ht="13.5" spans="1:18">
       <c r="A210" s="6" t="s">
         <v>407</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="211" spans="1:18">
+    <row r="211" ht="13.5" spans="1:18">
       <c r="A211" s="6" t="s">
         <v>410</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="216" spans="1:18">
+    <row r="216" ht="13.5" spans="1:18">
       <c r="A216" s="6" t="s">
         <v>226</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" ht="13.5" spans="1:1">
       <c r="A224" s="6" t="s">
         <v>206</v>
       </c>
